--- a/src/main/resources/data/lexusTest.xlsx
+++ b/src/main/resources/data/lexusTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NEW_PROJECTS\lexus\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NEW_PROJECTS\lexusTestBook\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B132B006-E9C6-4CD3-B7F8-32AAFBBDC410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6237B3-D247-453F-8676-CE0F2C97628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>CPL</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>qa@convertium.com</t>
   </si>
   <si>
@@ -78,13 +75,16 @@
     <t>91234567</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve"> RX 300</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>UX 300e</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,31 +492,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
